--- a/trunk/SEP/Team Member Evaluation/360-Evaluation.xlsx
+++ b/trunk/SEP/Team Member Evaluation/360-Evaluation.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Contribution" sheetId="1" r:id="rId1"/>
+    <sheet name="Attitude" sheetId="2" r:id="rId2"/>
+    <sheet name="360 - Evaluation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>Student ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Tạ Quang Hiệp</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>T096498</t>
   </si>
   <si>
@@ -69,28 +66,22 @@
     <t>Giang Thị Hà Thanh</t>
   </si>
   <si>
-    <t>360 - Evaluation</t>
-  </si>
-  <si>
-    <t>96.5</t>
-  </si>
-  <si>
-    <t>98.8</t>
-  </si>
-  <si>
-    <t>92.8</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>99.2</t>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Trần Dũng Đạt</t>
+  </si>
+  <si>
+    <t>360-Evaluation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -201,80 +192,177 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -283,49 +371,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,129 +782,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16">
+        <v>100</v>
+      </c>
+      <c r="E3" s="16">
+        <v>100</v>
+      </c>
+      <c r="F3" s="16">
+        <v>99</v>
+      </c>
+      <c r="G3" s="16">
+        <v>100</v>
+      </c>
+      <c r="H3" s="16">
+        <v>100</v>
+      </c>
+      <c r="I3" s="27">
+        <f>SUM(C3:H3)/5</f>
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="19">
+        <v>99</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <v>100</v>
+      </c>
+      <c r="F4" s="19">
+        <v>99</v>
+      </c>
+      <c r="G4" s="19">
+        <v>100</v>
+      </c>
+      <c r="H4" s="19">
+        <v>100</v>
+      </c>
+      <c r="I4" s="28">
+        <f t="shared" ref="I4:I8" si="0">SUM(C4:H4)/5</f>
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <v>94</v>
+      </c>
+      <c r="D5" s="19">
+        <v>92</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
+        <v>95</v>
+      </c>
+      <c r="G5" s="19">
+        <v>92</v>
+      </c>
+      <c r="H5" s="19">
+        <v>96</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" si="0"/>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C6" s="19">
+        <v>95</v>
+      </c>
+      <c r="D6" s="19">
+        <v>95</v>
+      </c>
+      <c r="E6" s="19">
+        <v>95</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
+        <v>95</v>
+      </c>
+      <c r="H6" s="19">
+        <v>98</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" si="0"/>
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="19">
+        <v>100</v>
+      </c>
+      <c r="D7" s="19">
+        <v>100</v>
+      </c>
+      <c r="E7" s="19">
+        <v>100</v>
+      </c>
+      <c r="F7" s="19">
         <v>99</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>99.6</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
+        <v>100</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
-        <v>93.8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>95.6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="22">
+        <v>100</v>
+      </c>
+      <c r="D8" s="22">
+        <v>100</v>
+      </c>
+      <c r="E8" s="22">
+        <v>100</v>
+      </c>
+      <c r="F8" s="22">
+        <v>99</v>
+      </c>
+      <c r="G8" s="22">
+        <v>100</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="29">
+        <f t="shared" si="0"/>
         <v>99.8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13">
-        <v>99.8</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -758,24 +1021,397 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16">
+        <v>96</v>
+      </c>
+      <c r="E3" s="16">
+        <v>96</v>
+      </c>
+      <c r="F3" s="17">
+        <v>96</v>
+      </c>
+      <c r="G3" s="16">
+        <v>100</v>
+      </c>
+      <c r="H3" s="16">
+        <v>100</v>
+      </c>
+      <c r="I3" s="24">
+        <f>SUM(C3:H3)/5</f>
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="18">
+        <v>99</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <v>100</v>
+      </c>
+      <c r="F4" s="20">
+        <v>100</v>
+      </c>
+      <c r="G4" s="19">
+        <v>100</v>
+      </c>
+      <c r="H4" s="19">
+        <v>99</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" ref="I4:I8" si="0">SUM(C4:H4)/5</f>
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18">
+        <v>95</v>
+      </c>
+      <c r="D5" s="19">
+        <v>100</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20">
+        <v>92</v>
+      </c>
+      <c r="G5" s="19">
+        <v>100</v>
+      </c>
+      <c r="H5" s="19">
+        <v>99</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="0"/>
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="18">
+        <v>94</v>
+      </c>
+      <c r="D6" s="19">
+        <v>92</v>
+      </c>
+      <c r="E6" s="19">
+        <v>94</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19">
+        <v>92</v>
+      </c>
+      <c r="H6" s="19">
+        <v>90</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="0"/>
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18">
+        <v>100</v>
+      </c>
+      <c r="D7" s="19">
+        <v>98</v>
+      </c>
+      <c r="E7" s="19">
+        <v>99</v>
+      </c>
+      <c r="F7" s="20">
+        <v>98</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19">
+        <v>100</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21">
+        <v>100</v>
+      </c>
+      <c r="D8" s="22">
+        <v>98</v>
+      </c>
+      <c r="E8" s="22">
+        <v>98</v>
+      </c>
+      <c r="F8" s="23">
+        <v>100</v>
+      </c>
+      <c r="G8" s="22">
+        <v>100</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="26">
+        <f t="shared" si="0"/>
+        <v>99.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="31">
+        <v>99.8</v>
+      </c>
+      <c r="D3" s="31">
+        <v>97.6</v>
+      </c>
+      <c r="E3" s="24">
+        <f>(C3+D3)/2</f>
+        <v>98.699999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32">
+        <v>99.6</v>
+      </c>
+      <c r="D4" s="32">
+        <v>99.6</v>
+      </c>
+      <c r="E4" s="24">
+        <f t="shared" ref="E4:E8" si="0">(C4+D4)/2</f>
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="32">
+        <v>93.8</v>
+      </c>
+      <c r="D5" s="32">
+        <v>97.2</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" si="0"/>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="32">
+        <v>95.6</v>
+      </c>
+      <c r="D6" s="32">
+        <v>92.4</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="32">
+        <v>99.8</v>
+      </c>
+      <c r="D7" s="32">
+        <v>99</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33">
+        <v>99.8</v>
+      </c>
+      <c r="D8" s="33">
+        <v>99.2</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>99.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>